--- a/pareto/case_studies/EXAMPLE_INPUT_DATA_FILE.xlsx
+++ b/pareto/case_studies/EXAMPLE_INPUT_DATA_FILE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drouvenm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calderoa\Documents\KeyLogic\PARETO\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B51DA5-7070-4C39-B68E-BBCFC0D92AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D1F936-F641-4631-A352-4D2475CC7BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="6" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -21,25 +21,17 @@
     <sheet name="CompletionsDemand" sheetId="8" r:id="rId6"/>
     <sheet name="FlowbackRates" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="84">
   <si>
     <t>List of all Production Pad Identifiers [-]</t>
   </si>
@@ -285,6 +277,12 @@
   </si>
   <si>
     <t>Figure 1: Illustration of the optimization workflow</t>
+  </si>
+  <si>
+    <t>CompletionsPads</t>
+  </si>
+  <si>
+    <t>ProductionPads</t>
   </si>
 </sst>
 </file>
@@ -540,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -548,7 +546,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -967,534 +964,534 @@
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.26171875" customWidth="1"/>
+    <col min="10" max="10" width="4.41796875" customWidth="1"/>
+    <col min="11" max="11" width="9.41796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="30" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="27"/>
+      <c r="C5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="30" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="27"/>
+      <c r="C6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="30" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="28"/>
-      <c r="C8" s="30" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="27"/>
+      <c r="C8" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="30" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="27"/>
+      <c r="C9" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="28"/>
-      <c r="C10" s="30" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="27"/>
+      <c r="C10" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="28"/>
-      <c r="C12" s="30" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="27"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="27"/>
+      <c r="C12" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="30" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="27"/>
+      <c r="C13" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="30" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="27"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="27"/>
+      <c r="C15" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="30" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="27"/>
+      <c r="C16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="30" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="27"/>
+      <c r="C17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="30" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="27"/>
+      <c r="C18" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="32" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="27"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="27"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="27"/>
+      <c r="C21" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="32" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="33" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="27"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="27"/>
+      <c r="C23" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="33" t="s">
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="27"/>
+      <c r="C24" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="33" t="s">
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="27"/>
+      <c r="C25" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="33" t="s">
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="27"/>
+      <c r="C26" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="33" t="s">
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="27"/>
+      <c r="C27" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="31"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="33" t="s">
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="27"/>
+      <c r="C28" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
-      <c r="C29" s="33" t="s">
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="27"/>
+      <c r="C29" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="33" t="s">
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="27"/>
+      <c r="C30" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="33" t="s">
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="27"/>
+      <c r="C31" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="31"/>
-      <c r="M31" s="37" t="s">
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="M31" s="36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="33" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="27"/>
+      <c r="C32" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="31"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
-      <c r="C33" s="33" t="s">
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="27"/>
+      <c r="C33" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="31"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="33" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="27"/>
+      <c r="C34" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30" t="s">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="31"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-      <c r="C35" s="33" t="s">
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="27"/>
+      <c r="C35" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30" t="s">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="31"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
-      <c r="C36" s="33" t="s">
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="27"/>
+      <c r="C36" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30" t="s">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="31"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="36"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1526,25 +1523,25 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.26171875" style="1"/>
+    <col min="3" max="3" width="3.578125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.26171875" style="1"/>
+    <col min="13" max="13" width="11.26171875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83984375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2"/>
@@ -1564,8 +1561,8 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2"/>
@@ -1585,12 +1582,12 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="23"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1606,8 +1603,8 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2"/>
@@ -1620,15 +1617,15 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2"/>
@@ -1648,8 +1645,8 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2"/>
@@ -1669,8 +1666,8 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2"/>
@@ -1690,8 +1687,8 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
@@ -1711,38 +1708,38 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1757,35 +1754,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA283BC5-D620-4970-8035-9A1157B6300D}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="3.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.26171875" style="1"/>
+    <col min="14" max="14" width="12.68359375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.41796875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="2"/>
@@ -1807,8 +1804,8 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="2"/>
@@ -1830,13 +1827,13 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1853,7 +1850,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1865,15 +1862,15 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1893,7 +1890,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1913,7 +1910,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1933,7 +1930,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1953,7 +1950,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1973,7 +1970,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2006,29 +2003,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.26171875" style="1"/>
+    <col min="4" max="4" width="4.41796875" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.26171875" style="1"/>
+    <col min="15" max="15" width="12.15625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26171875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2"/>
@@ -2048,8 +2045,8 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2"/>
@@ -2069,13 +2066,13 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="23"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2090,8 +2087,8 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="2"/>
@@ -2105,13 +2102,13 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2129,7 +2126,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2147,7 +2144,7 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2165,7 +2162,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2195,1303 +2192,1305 @@
   <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="17" t="s">
+      <c r="AG2" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="20"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="19"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="20"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="19"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="20"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="19"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="20"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="19"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="20"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="19"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="20"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="19"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="20"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="19"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="20"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="19"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="20"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="19"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="19"/>
-      <c r="AE12" s="19"/>
-      <c r="AF12" s="19"/>
-      <c r="AG12" s="20"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="19"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="20"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="19"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="20"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="19"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="20"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="19"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="20"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="19"/>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="20"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="19"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="19"/>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="20"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="19"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="19"/>
-      <c r="AE19" s="19"/>
-      <c r="AF19" s="19"/>
-      <c r="AG19" s="20"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="19"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="19"/>
-      <c r="AC20" s="19"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="19"/>
-      <c r="AF20" s="19"/>
-      <c r="AG20" s="20"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="19"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="19"/>
-      <c r="AD21" s="19"/>
-      <c r="AE21" s="19"/>
-      <c r="AF21" s="19"/>
-      <c r="AG21" s="20"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="19"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="19"/>
-      <c r="AD22" s="19"/>
-      <c r="AE22" s="19"/>
-      <c r="AF22" s="19"/>
-      <c r="AG22" s="20"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="19"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="20"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="19"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="19"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="19"/>
-      <c r="AE24" s="19"/>
-      <c r="AF24" s="19"/>
-      <c r="AG24" s="20"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="19"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="19"/>
-      <c r="AC25" s="19"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="20"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="19"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="19"/>
-      <c r="AF26" s="19"/>
-      <c r="AG26" s="20"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="19"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="19"/>
-      <c r="AF27" s="19"/>
-      <c r="AG27" s="20"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="19"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="20"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="19"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="20"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="19"/>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="20"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="19"/>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="19"/>
-      <c r="AF31" s="19"/>
-      <c r="AG31" s="20"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="19"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="19"/>
-      <c r="AF32" s="19"/>
-      <c r="AG32" s="20"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="19"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="20"/>
-    </row>
-    <row r="34" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="19"/>
+    </row>
+    <row r="34" spans="1:33" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="22"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="21"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3509,7 +3508,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3527,10 +3526,10 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="23"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -3545,7 +3544,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3557,13 +3556,13 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -3581,7 +3580,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -3599,7 +3598,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -3617,7 +3616,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -3635,7 +3634,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -3653,7 +3652,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3682,491 +3681,493 @@
   <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16">
+    <row r="2" spans="1:53" s="17" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>2</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>3</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>4</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>5</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>6</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>7</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>8</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>9</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>10</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>11</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="15">
         <v>12</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="15">
         <v>13</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>14</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="15">
         <v>15</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="15">
         <v>16</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>17</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="15">
         <v>18</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="15">
         <v>19</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="15">
         <v>20</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="15">
         <v>21</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="15">
         <v>22</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="15">
         <v>23</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Y2" s="15">
         <v>24</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="15">
         <v>25</v>
       </c>
-      <c r="AA2" s="16">
+      <c r="AA2" s="15">
         <v>26</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AB2" s="15">
         <v>27</v>
       </c>
-      <c r="AC2" s="16">
+      <c r="AC2" s="15">
         <v>28</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AD2" s="15">
         <v>29</v>
       </c>
-      <c r="AE2" s="16">
+      <c r="AE2" s="15">
         <v>30</v>
       </c>
-      <c r="AF2" s="16">
+      <c r="AF2" s="15">
         <v>31</v>
       </c>
-      <c r="AG2" s="16">
+      <c r="AG2" s="15">
         <v>32</v>
       </c>
-      <c r="AH2" s="16">
+      <c r="AH2" s="15">
         <v>33</v>
       </c>
-      <c r="AI2" s="16">
+      <c r="AI2" s="15">
         <v>34</v>
       </c>
-      <c r="AJ2" s="16">
+      <c r="AJ2" s="15">
         <v>35</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>36</v>
       </c>
-      <c r="AL2" s="16">
+      <c r="AL2" s="15">
         <v>37</v>
       </c>
-      <c r="AM2" s="16">
+      <c r="AM2" s="15">
         <v>38</v>
       </c>
-      <c r="AN2" s="16">
+      <c r="AN2" s="15">
         <v>39</v>
       </c>
-      <c r="AO2" s="16">
+      <c r="AO2" s="15">
         <v>40</v>
       </c>
-      <c r="AP2" s="16">
+      <c r="AP2" s="15">
         <v>41</v>
       </c>
-      <c r="AQ2" s="16">
+      <c r="AQ2" s="15">
         <v>42</v>
       </c>
-      <c r="AR2" s="16">
+      <c r="AR2" s="15">
         <v>43</v>
       </c>
-      <c r="AS2" s="16">
+      <c r="AS2" s="15">
         <v>44</v>
       </c>
-      <c r="AT2" s="16">
+      <c r="AT2" s="15">
         <v>45</v>
       </c>
-      <c r="AU2" s="16">
+      <c r="AU2" s="15">
         <v>46</v>
       </c>
-      <c r="AV2" s="16">
+      <c r="AV2" s="15">
         <v>47</v>
       </c>
-      <c r="AW2" s="16">
+      <c r="AW2" s="15">
         <v>48</v>
       </c>
-      <c r="AX2" s="16">
+      <c r="AX2" s="15">
         <v>49</v>
       </c>
-      <c r="AY2" s="16">
+      <c r="AY2" s="15">
         <v>50</v>
       </c>
-      <c r="AZ2" s="16">
+      <c r="AZ2" s="15">
         <v>51</v>
       </c>
-      <c r="BA2" s="17">
+      <c r="BA2" s="16">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18">
         <v>110000</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="18">
         <v>245000</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>245000</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>245000</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <v>245000</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <v>245000</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>245000</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="18">
         <v>245000</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>80000</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="20"/>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="19"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18">
         <v>75000</v>
       </c>
-      <c r="AR4" s="19">
+      <c r="AR4" s="18">
         <v>245000</v>
       </c>
-      <c r="AS4" s="19">
+      <c r="AS4" s="18">
         <v>245000</v>
       </c>
-      <c r="AT4" s="19">
+      <c r="AT4" s="18">
         <v>245000</v>
       </c>
-      <c r="AU4" s="19">
+      <c r="AU4" s="18">
         <v>245000</v>
       </c>
-      <c r="AV4" s="19">
+      <c r="AV4" s="18">
         <v>245000</v>
       </c>
-      <c r="AW4" s="19">
+      <c r="AW4" s="18">
         <v>245000</v>
       </c>
-      <c r="AX4" s="19">
+      <c r="AX4" s="18">
         <v>245000</v>
       </c>
-      <c r="AY4" s="19">
+      <c r="AY4" s="18">
         <v>245000</v>
       </c>
-      <c r="AZ4" s="19">
+      <c r="AZ4" s="18">
         <v>245000</v>
       </c>
-      <c r="BA4" s="20">
+      <c r="BA4" s="19">
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18">
         <v>194000</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="18">
         <v>294000</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="18">
         <v>294000</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="18">
         <v>294000</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="18">
         <v>294000</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="18">
         <v>294000</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="18">
         <v>294000</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="18">
         <v>294000</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="18">
         <v>294000</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="18">
         <v>294000</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="18">
         <v>50000</v>
       </c>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="20"/>
-    </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="19"/>
+    </row>
+    <row r="6" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20">
         <v>233000</v>
       </c>
-      <c r="AE6" s="21">
+      <c r="AE6" s="20">
         <v>320000</v>
       </c>
-      <c r="AF6" s="21">
+      <c r="AF6" s="20">
         <v>320000</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AG6" s="20">
         <v>320000</v>
       </c>
-      <c r="AH6" s="21">
+      <c r="AH6" s="20">
         <v>320000</v>
       </c>
-      <c r="AI6" s="21">
+      <c r="AI6" s="20">
         <v>320000</v>
       </c>
-      <c r="AJ6" s="21">
+      <c r="AJ6" s="20">
         <v>320000</v>
       </c>
-      <c r="AK6" s="21">
+      <c r="AK6" s="20">
         <v>320000</v>
       </c>
-      <c r="AL6" s="21">
+      <c r="AL6" s="20">
         <v>320000</v>
       </c>
-      <c r="AM6" s="21">
+      <c r="AM6" s="20">
         <v>320000</v>
       </c>
-      <c r="AN6" s="21">
+      <c r="AN6" s="20">
         <v>195000</v>
       </c>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="22"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="21"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4185,7 +4186,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4204,10 +4205,10 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="23"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4223,7 +4224,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4235,14 +4236,14 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4261,7 +4262,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -4280,7 +4281,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -4299,7 +4300,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -4318,7 +4319,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -4347,181 +4348,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AB1186-A1E7-4C17-BA8E-EB0106BA7D22}">
   <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:W22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26171875" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.26171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="12">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>4</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>6</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>7</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>8</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>9</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>10</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>11</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>12</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>13</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>14</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>15</v>
       </c>
-      <c r="Q2" s="8">
+      <c r="Q2" s="7">
         <v>16</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="7">
         <v>17</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="7">
         <v>18</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <v>19</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="7">
         <v>20</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="7">
         <v>21</v>
       </c>
-      <c r="W2" s="8">
+      <c r="W2" s="7">
         <v>22</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="7">
         <v>23</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="7">
         <v>24</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="7">
         <v>25</v>
       </c>
-      <c r="AA2" s="8">
+      <c r="AA2" s="7">
         <v>26</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="7">
         <v>27</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="7">
         <v>28</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="7">
         <v>29</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="7">
         <v>30</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="7">
         <v>31</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="7">
         <v>32</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2" s="7">
         <v>33</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2" s="7">
         <v>34</v>
       </c>
-      <c r="AJ2" s="8">
+      <c r="AJ2" s="7">
         <v>35</v>
       </c>
-      <c r="AK2" s="8">
+      <c r="AK2" s="7">
         <v>36</v>
       </c>
-      <c r="AL2" s="8">
+      <c r="AL2" s="7">
         <v>37</v>
       </c>
-      <c r="AM2" s="8">
+      <c r="AM2" s="7">
         <v>38</v>
       </c>
-      <c r="AN2" s="8">
+      <c r="AN2" s="7">
         <v>39</v>
       </c>
-      <c r="AO2" s="8">
+      <c r="AO2" s="7">
         <v>40</v>
       </c>
-      <c r="AP2" s="8">
+      <c r="AP2" s="7">
         <v>41</v>
       </c>
-      <c r="AQ2" s="8">
+      <c r="AQ2" s="7">
         <v>42</v>
       </c>
-      <c r="AR2" s="8">
+      <c r="AR2" s="7">
         <v>43</v>
       </c>
-      <c r="AS2" s="8">
+      <c r="AS2" s="7">
         <v>44</v>
       </c>
-      <c r="AT2" s="8">
+      <c r="AT2" s="7">
         <v>45</v>
       </c>
-      <c r="AU2" s="8">
+      <c r="AU2" s="7">
         <v>46</v>
       </c>
-      <c r="AV2" s="8">
+      <c r="AV2" s="7">
         <v>47</v>
       </c>
-      <c r="AW2" s="8">
+      <c r="AW2" s="7">
         <v>48</v>
       </c>
-      <c r="AX2" s="8">
+      <c r="AX2" s="7">
         <v>49</v>
       </c>
-      <c r="AY2" s="8">
+      <c r="AY2" s="7">
         <v>50</v>
       </c>
-      <c r="AZ2" s="8">
+      <c r="AZ2" s="7">
         <v>51</v>
       </c>
-      <c r="BA2" s="9">
+      <c r="BA2" s="8">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
@@ -4593,8 +4596,8 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3"/>
@@ -4650,8 +4653,8 @@
       <c r="AZ4" s="3"/>
       <c r="BA4" s="4"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="3"/>
@@ -4713,8 +4716,8 @@
       <c r="AZ5" s="3"/>
       <c r="BA5" s="4"/>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:53" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="5"/>
@@ -4776,7 +4779,7 @@
       <c r="AZ6" s="5"/>
       <c r="BA6" s="6"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4797,7 +4800,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -4818,10 +4821,10 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -4839,7 +4842,7 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4851,16 +4854,16 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4881,7 +4884,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4902,7 +4905,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4923,7 +4926,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4944,7 +4947,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4965,7 +4968,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -4986,7 +4989,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -5007,7 +5010,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -5028,7 +5031,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5049,7 +5052,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:23" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
